--- a/streamlit/plotar_mapa/enderecos_com_cep.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_cep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,21 +507,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4001389730</v>
+        <v>4000681665</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appartement avec un emplacement incroyable à Genève</t>
+          <t>Mieten Sie ein Stockwerk im SWISS BUSINESS CASTLE IN ZURICH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rue de la Dôle 24, 1203 Genève</t>
+          <t>8002 Zürich</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -546,22 +546,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001389730</t>
+          <t>https://www.homegate.ch/rent/4000681665</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>55</v>
+        <v>1750</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08'), (1550.0, '2024-23-08')]</t>
+          <t>[(750.0, '2024-18-08'), (750.0, '2024-20-08'), (750.0, '2024-21-08'), (750.0, '2024-22-08'), (750.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -571,16 +571,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4001208261</v>
+        <v>4001405006</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luxusapartments in Dubai</t>
+          <t>3.0-Zimmerwohnung in Albisrieden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>APARMENTS SIND IN DUBAI - DAMAC HILLS 2, 8050 Zürich</t>
+          <t>Albert-Schneider-Weg 10, 8047 Zürich</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -593,10 +593,14 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -606,46 +610,46 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001208261</t>
+          <t>https://www.homegate.ch/rent/4001405006</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[(170000.0, '2024-18-08'), (170000.0, '2024-20-08'), (170000.0, '2024-21-08'), (170000.0, '2024-22-08'), (170000.0, '2024-23-08')]</t>
+          <t>[(979.0, '2024-21-08')]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>170000</v>
+        <v>979</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-21-08</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4001404554</v>
+        <v>4001402352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OHRID VIEW - Exklusive Wohnträume am Ohridsee</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8001 Zurich</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,37 +659,37 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/buy/4001404554</t>
+          <t>https://www.homegate.ch/rent/4001402352</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[(200000.0, '2024-21-08'), (200000.0, '2024-22-08'), (200000.0, '2024-23-08')]</t>
+          <t>[(1023.0, '2024-20-08'), (1023.0, '2024-21-08'), (1023.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200000</v>
+        <v>1023</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -695,21 +699,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4000933408</v>
+        <v>4001405544</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luxusapartments in Dubai</t>
+          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>APARTMENTS IN DUBAI - DAMAC HILLS 2, 8050 Zürich</t>
+          <t>Rue du Valais 18, 1202 Genève</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -717,10 +721,14 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -730,22 +738,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4000933408</t>
+          <t>https://www.homegate.ch/rent/4001405544</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K5" t="n">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[(250000.0, '2024-18-08'), (250000.0, '2024-20-08'), (250000.0, '2024-21-08'), (250000.0, '2024-22-08'), (250000.0, '2024-23-08')]</t>
+          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250000</v>
+        <v>1165</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -755,16 +763,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4000921514</v>
+        <v>4001400450</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luxusapartments in Dubai - Damac Lagoon Views</t>
+          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>APARTMENTS in DUBAI - Damac Lagoon Views, 8050 Zürich</t>
+          <t>Baumackerstrasse 47, 8050 Zürich</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -777,10 +785,14 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -790,22 +802,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4000921514</t>
+          <t>https://www.homegate.ch/rent/4001400450</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[(350000.0, '2024-18-08'), (350000.0, '2024-20-08'), (350000.0, '2024-21-08'), (350000.0, '2024-22-08'), (350000.0, '2024-23-08')]</t>
+          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>350000</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -815,21 +827,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4001400049</v>
+        <v>4001401166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zu verkaufen 2 kleine Wohnungen in Laupen ZH ab 350'000.-CHF</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Diezikonerstrasse 17, 8637 Laupen</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -839,12 +851,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8637</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -854,7 +866,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001400049</t>
+          <t>https://www.homegate.ch/rent/4001401166</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -865,11 +877,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[(350000.0, '2024-20-08'), (350000.0, '2024-21-08'), (350000.0, '2024-22-08'), (350000.0, '2024-23-08')]</t>
+          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>350000</v>
+        <v>1248</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,16 +891,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4001306914</v>
+        <v>4001401691</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEMÜTLICH &amp; RUHIG!</t>
+          <t>Chambre à Zurich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Neubrunn 971, 8488 Turbenthal</t>
+          <t>Hottingerstrasse 34, 8032 Zürich</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -903,12 +915,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8488</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -918,22 +930,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001306914</t>
+          <t>https://www.homegate.ch/rent/4001401691</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[(365000.0, '2024-18-08'), (365000.0, '2024-20-08'), (365000.0, '2024-21-08'), (365000.0, '2024-22-08')]</t>
+          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>365000</v>
+        <v>1250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -943,16 +955,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4001317326</v>
+        <v>4001391266</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Traumhafte Ferienwohnung in Curaglia, Graubünden</t>
+          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8000 Zürich</t>
+          <t>Glättlistrasse 1, 8048 Zürich</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -967,12 +979,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -982,22 +994,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001317326</t>
+          <t>https://www.homegate.ch/rent/4001391266</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[(370000.0, '2024-18-08'), (370000.0, '2024-20-08'), (370000.0, '2024-21-08'), (370000.0, '2024-22-08'), (370000.0, '2024-23-08')]</t>
+          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>370000</v>
+        <v>1254</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1007,16 +1019,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4001394938</v>
+        <v>4001365270</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Opportunité à saisir : Superbe 6 pièces à Veigy-Foncenex, à 20 minutes du centre de Genève</t>
+          <t>Studio à Genève.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>1205 Genève</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1036,7 +1048,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1046,22 +1058,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/buy/4001394938</t>
+          <t>https://www.homegate.ch/rent/4001365270</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="n">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[(395000.0, '2024-18-08'), (395000.0, '2024-20-08'), (395000.0, '2024-21-08'), (395000.0, '2024-22-08'), (395000.0, '2024-23-08')]</t>
+          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>395000</v>
+        <v>1256</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1071,63 +1083,5823 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4001327170</v>
+        <v>4001243823</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Altersgerechtes Wohnen im sonnigsten Dorf der Schweiz</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Blachenstrasse, 8467 Truttikon</t>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001243823</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1270</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4001296829</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pâquis / Proche de la gare Cornavin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001296829</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[(1390.0, '2024-18-08'), (1390.0, '2024-20-08'), (1390.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1390</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4001281444</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à la Servette.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001281444</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4001398165</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rue de Richemont, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001398165</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4001393841</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Magnusstrasse 8, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Zurich</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8467</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>homegate</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://www.homegate.ch/buy/4001327170</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001393841</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>44</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4001381179</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Studio situé à la Servette</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001381179</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>33</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4001355523</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rue de la Navigation, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001355523</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1430</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4001336642</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>avenue Industrielle, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001336642</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1483</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4001355584</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Studio komplett möbliert und ausgestattet</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unterfeldstrasse 4, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001355584</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>48</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4001401164</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Studio situé aux pâquis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1201 Genève</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001401164</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4001401033</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Stiglenstrasse 37, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001401033</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>2.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>1490</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4001402351</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à la Servette.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001402351</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4001337045</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Appartement à Genève</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001337045</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4001406104</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Birnbaumstrasse 17, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001406104</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>55</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4001356877</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1227 Acacias</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001356877</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>35</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4001320202</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Studio à la Servette.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320202</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>30</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4001366897</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces à Plainpalais.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1205 Genève</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366897</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1505</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4001351379</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351379</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1510</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4001373053</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Appartement lumineux de 30 m situé dans 1203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rue Daubin, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001373053</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1520</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4001364077</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Studio situé aux Pâquis</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1201 Genève</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001364077</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>35</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4001343788</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Meyrin.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001343788</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>45</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1558</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4001133546</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2-Zimmer-Wohnung an bester Lage</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hallwylstrasse 40, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001133546</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>38</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1559</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4001390278</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gemütliche Single-Wohnung</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390278</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>51</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1590</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4001383897</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Les Hauts de Saint-Jean</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001383897</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>37</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1590</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3001912350</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Viktoriastrasse 29, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3001912350</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>23</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4001292968</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13 Rue Sautter, 1.5 pièce</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rue Sautter 13, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001292968</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>36</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[(1608.0, '2024-18-08'), (1608.0, '2024-20-08'), (1608.0, '2024-21-08')]</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>1608</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-21-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4001389721</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Studio in Geneva</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Grand-Rue 12, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001389721</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>56</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1610</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4001405543</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rue de la Filature 23, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001405543</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>35</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1612</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4001328195</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Studio situé aux Servettes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001328195</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>36</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>1620</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4001369307</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Wir suchen genau Sie</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Badenerstrasse 779, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369307</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>59</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[(1620.0, '2024-18-08'), (1620.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08'), (1620.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>1620</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4001297083</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001297083</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1630</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4001066000</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces au 2ème étage</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rue Voltaire 31, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001066000</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>28</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>1640</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4001361662</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2.0 Zimmerwohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Dübendorfstrasse 333, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001361662</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>51</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>1643</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4001402922</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Buchzelgstrasse 91, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001402922</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>55</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4001386498</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Singlewohnung in Zürich Seebach Kopie</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Arianestrasse 11, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386498</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>34</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>1654</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4001383533</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Felsenrainstrasse 15, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001383533</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>1663</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4001342150</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chambre a louer au Eaux-Vives!</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chemin Neuf, 1207 Geneva</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001342150</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>91</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>1665</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4001313115</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Studio à Genève.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1204 Genève</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313115</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>23</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1670</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4001364577</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Glatttalstrasse 79, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001364577</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>34</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>1678</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4001259400</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001259400</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4001385233</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Charmantes zentrales Studio zu mieten</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Aprikosenstrasse 5, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001385233</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>23</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1690</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4001385958</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001385958</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4001407318</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001407318</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>58</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1710</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4001380884</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wiesliacher 95, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001380884</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>64</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4001333905</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333905</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>29</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1715</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4001151789</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001151789</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>28</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>1718</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4001407904</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001407904</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>48</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>1720</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4001372133</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Quartier des Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372133</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>40</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>1750</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4001389683</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Karstlernstrasse 6, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001389683</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>58</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>1751</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4001390016</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390016</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>34</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4001400576</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001400576</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>56</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4001395817</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VERSOIX - 3 pièces</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395817</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>62</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4001395818</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VERSOIX - 3 pièces</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395818</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>62</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4001362025</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001362025</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>58</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4001156178</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A saisir ! Au coeur de Genève !</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001156178</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>41</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1780</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4001292988</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Carouge.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001292988</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>51</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1785</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4001318915</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Erstvermietung</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001318915</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>37</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4001351110</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ihre neue Wohnung im Grünen?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Balberstrasse 74, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351110</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4001289661</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>EINMALIGES WOHNEN NAHE ZÜRCHER -ZENTRUM IN EINER TRAUMHAFTEN ETAGENWOHNUNG</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Albisstrasse 161, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001289661</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>65</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4001403040</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Schöne Stadtnahe Wohnung</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001403040</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>55</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1791</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4001336703</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Centre-ville / Proche de la gare Cornavin</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001336703</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4001349266</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1253</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001349266</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" t="n">
         <v>54</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[(395000.0, '2024-18-08'), (395000.0, '2024-20-08'), (395000.0, '2024-21-08'), (395000.0, '2024-22-08')]</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>395000</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4001320201</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces aux Eaux-Vives.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1207 Genève</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320201</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>30</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4001320200</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Appartement de 2 pièces aux Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1207 Genève</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001320200</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>35</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1810</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4001245886</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001245886</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4001390113</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Baslerstrasse 107, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001390113</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4001386972</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bel appartement dans le quartier de la Servette</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rue Louis-Favre 6, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386972</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>35</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1820</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4001341049</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Hönggerstrasse 24, 8037 Zürich</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341049</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>36</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1840</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4001371525</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Carouge.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371525</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>51</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4001350715</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Joli studio en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001350715</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4001369430</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bel appartement de 3 pièces au 3e étage.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rue des Noirettes 27, 1227 Carouge</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369430</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>51</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1845</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4001298127</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Wohnen mit Aussicht</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001298127</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>65</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1849</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4001366896</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Plainpalais.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1203 Genève</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366896</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>44</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4001275872</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rue de la Cité 9bis, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001275872</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>32</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4001333869</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333869</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>44</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4001398794</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Wohnen neben Sportplatz und Glattzentrum</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001398794</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>50</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1850</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4001386021</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Geeringstrasse 42, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386021</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>60</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1855</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4001221422</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Zentrale Lage - idyllisch und ruhig</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jungholzstrasse 20, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001221422</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1866</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4001404338</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rue de la Calle 34, 1213 ONEX</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001404338</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>79</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4001360173</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wartauweg 19, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001360173</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>28</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4001400534</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>neu renovierte 3-Zimmerwohnung</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Am Luchsgraben 9, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001400534</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>65</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4001298128</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001298128</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>66</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1870</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4001333934</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Im Grünen in Zürich-Altstetten</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Vetterliweg 82, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333934</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>59</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1880</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3001034675</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Friesstrasse 8, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034675</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>20</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1890</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4001372957</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Urbanes Wohnen im Kreis 4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Hildastrasse 1, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372957</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>29</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1890</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4001313304</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2 pièces au Pâquis proche du lac</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rue des Pâquis 53, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313304</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>43</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4001187616</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Eidmattstrasse 6, 8032 Zürich</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001187616</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>38</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4001370602</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces au 3ème étage</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Avenue Blanc 34, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370602</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>50</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4001385645</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Uetlibergstrasse 83, 8045 Zürich</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001385645</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>52</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4001371524</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à Genève.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371524</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>50</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4001382538</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Charmant appartement en attique de 3 pièces situé à Bernex</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1233 Bernex</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001382538</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>60</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N101" t="inlineStr">
         <is>
           <t>2024-22-08</t>
         </is>

--- a/streamlit/plotar_mapa/enderecos_com_cep.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_cep.xlsx
@@ -565,27 +565,27 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4001405006</v>
+        <v>4001410145</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.0-Zimmerwohnung in Albisrieden</t>
+          <t>COLOCATION - Appartements de 6 pièces (3 x 2 pièces)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Albert-Schneider-Weg 10, 8047 Zürich</t>
+          <t>avenue de la Gare des Eaux-Vives 27, 1208 Genève</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,11 +593,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8047</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Rent</t>
@@ -610,26 +606,26 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405006</t>
+          <t>https://www.homegate.ch/rent/4001410145</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[(979.0, '2024-21-08')]</t>
+          <t>[(905.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>979</v>
+        <v>905</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
@@ -699,16 +695,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4001405544</v>
+        <v>4001409549</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
+          <t>Appartement de 2 pièces au 7ème étage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rue du Valais 18, 1202 Genève</t>
+          <t>chemin François-Lehmann 16, 1218 Le Grand-Saconnex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -723,7 +719,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -738,41 +734,41 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405544</t>
+          <t>https://www.homegate.ch/rent/4001409549</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
+          <t>[(1110.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1165</v>
+        <v>1110</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4001400450</v>
+        <v>4001409730</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
+          <t>Befristet bis 31.01.2025: Zentral gelegene 2.5-Zimmerwohnung mit Balkon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Baumackerstrasse 47, 8050 Zürich</t>
+          <t>Badenerstrasse 253, 8003 Zürich</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -787,7 +783,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -802,41 +798,41 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400450</t>
+          <t>https://www.homegate.ch/rent/4001409730</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
+          <t>[(1150.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1150</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4001401166</v>
+        <v>4001405544</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Studio en parfait état à Montbrillant proche des Nations disponible au 1er octobre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rue du Valais 18, 1202 Genève</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -851,7 +847,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -866,41 +862,41 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401166</t>
+          <t>https://www.homegate.ch/rent/4001405544</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
+          <t>[(1165.0, '2024-21-08'), (1165.0, '2024-22-08'), (1165.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1248</v>
+        <v>1165</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4001401691</v>
+        <v>4001400450</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chambre à Zurich</t>
+          <t>Lease take over- Studio in Zurich/ Mietvertragsübernahme - Studio in Zürich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hottingerstrasse 34, 8032 Zürich</t>
+          <t>Baumackerstrasse 47, 8050 Zürich</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -915,7 +911,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -930,46 +926,46 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401691</t>
+          <t>https://www.homegate.ch/rent/4001400450</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
+          <t>[(1240.0, '2024-20-08'), (1240.0, '2024-21-08'), (1240.0, '2024-22-08'), (1240.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4001391266</v>
+        <v>4001401166</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Glättlistrasse 1, 8048 Zürich</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -979,7 +975,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -994,22 +990,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001391266</t>
+          <t>https://www.homegate.ch/rent/4001401166</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
+          <t>[(1248.0, '2024-20-08'), (1248.0, '2024-21-08'), (1248.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1019,21 +1015,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4001365270</v>
+        <v>4001410215</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Studio à Genève.</t>
+          <t>Charmante Altbauwohnung im Kreis 3 - befristeter Mietvertrag bis am 28. Februar 2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Malzstrasse 16, 8045 Zürich</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1043,7 +1039,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1058,46 +1054,46 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001365270</t>
+          <t>https://www.homegate.ch/rent/4001410215</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
+          <t>[(1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4001243823</v>
+        <v>4001401691</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Chambre à Zurich</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Hottingerstrasse 34, 8032 Zürich</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1107,7 +1103,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1122,46 +1118,46 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001243823</t>
+          <t>https://www.homegate.ch/rent/4001401691</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
+          <t>[(1250.0, '2024-20-08'), (1250.0, '2024-21-08'), (1250.0, '2024-22-08'), (1250.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4001296829</v>
+        <v>4001391266</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pâquis / Proche de la gare Cornavin</t>
+          <t>Auswahl-Prozess + Pflichten beachten - keine Direktauskünfte</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Glättlistrasse 1, 8048 Zürich</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1171,7 +1167,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1186,41 +1182,41 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001296829</t>
+          <t>https://www.homegate.ch/rent/4001391266</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[(1390.0, '2024-18-08'), (1390.0, '2024-20-08'), (1390.0, '2024-21-08')]</t>
+          <t>[(1254.0, '2024-18-08'), (1254.0, '2024-20-08'), (1254.0, '2024-21-08'), (1254.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1390</v>
+        <v>1254</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-22-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4001281444</v>
+        <v>4001365270</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Studio à Genève.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>1205 Genève</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1250,22 +1246,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001281444</t>
+          <t>https://www.homegate.ch/rent/4001365270</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K13" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1256.0, '2024-18-08'), (1256.0, '2024-20-08'), (1256.0, '2024-21-08'), (1256.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1400</v>
+        <v>1256</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1275,7 +1271,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4001398165</v>
+        <v>4001243823</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1284,7 +1280,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rue de Richemont, 1202 Genève</t>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1299,7 +1295,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1314,46 +1310,46 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398165</t>
+          <t>https://www.homegate.ch/rent/4001243823</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K14" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1270.0, '2024-18-08'), (1270.0, '2024-20-08'), (1270.0, '2024-21-08'), (1270.0, '2024-22-08'), (1270.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1400</v>
+        <v>1270</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4001393841</v>
+        <v>4001281444</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Magnusstrasse 8, 8004 Zürich</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1363,7 +1359,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1378,18 +1374,18 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001393841</t>
+          <t>https://www.homegate.ch/rent/4001281444</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1403,16 +1399,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4001381179</v>
+        <v>4001398165</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Studio situé à la Servette</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rue de Richemont, 1202 Genève</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1427,7 +1423,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1442,18 +1438,18 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001381179</t>
+          <t>https://www.homegate.ch/rent/4001398165</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
+          <t>[(1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1467,21 +1463,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4001355523</v>
+        <v>4001393841</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>GEMÜTLICHE WOHNUNG MITTEN IM KREIS 4! BEFRISTET BIS 31. MÄRZ 2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rue de la Navigation, 1201 Genève</t>
+          <t>Magnusstrasse 8, 8004 Zürich</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1491,7 +1487,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1506,41 +1502,41 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355523</t>
+          <t>https://www.homegate.ch/rent/4001393841</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08'), (1400.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1430</v>
+        <v>1400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4001336642</v>
+        <v>4001381179</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
+          <t>Studio situé à la Servette</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>avenue Industrielle, 1227 Carouge GE</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1555,7 +1551,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1570,22 +1566,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336642</t>
+          <t>https://www.homegate.ch/rent/4001381179</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
+          <t>[(1400.0, '2024-18-08'), (1400.0, '2024-20-08'), (1400.0, '2024-21-08'), (1400.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1483</v>
+        <v>1400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1595,21 +1591,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4001355584</v>
+        <v>4001355523</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Studio komplett möbliert und ausgestattet</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unterfeldstrasse 4, 8050 Zürich</t>
+          <t>Rue de la Navigation, 1201 Genève</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1619,7 +1615,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1634,41 +1630,41 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001355584</t>
+          <t>https://www.homegate.ch/rent/4001355523</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
+          <t>[(1430.0, '2024-18-08'), (1430.0, '2024-20-08'), (1430.0, '2024-21-08'), (1430.0, '2024-22-08'), (1430.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1490</v>
+        <v>1430</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4001401164</v>
+        <v>4001410171</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Studio situé aux pâquis</t>
+          <t>Jonction, Quai des Arenières, 2 pièces au 3ème étage, env. 31m2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Arénières, 1205 Genève</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1683,7 +1679,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1698,46 +1694,46 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401164</t>
+          <t>https://www.homegate.ch/rent/4001410171</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
+          <t>[(1460.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1490</v>
+        <v>1460</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4001401033</v>
+        <v>4001336642</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wohnung in Zürich</t>
+          <t>Bel appartement 2 pièces de style ancien à Carouge</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Stiglenstrasse 37, 8052 Zürich</t>
+          <t>avenue Industrielle, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1747,7 +1743,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1762,41 +1758,41 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001401033</t>
+          <t>https://www.homegate.ch/rent/4001336642</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08')]</t>
+          <t>[(1483.0, '2024-18-08'), (1483.0, '2024-20-08'), (1483.0, '2024-21-08'), (1483.0, '2024-22-08'), (1483.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4001402351</v>
+        <v>4001401164</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à la Servette.</t>
+          <t>Studio situé aux pâquis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>1201 Genève</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1826,22 +1822,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402351</t>
+          <t>https://www.homegate.ch/rent/4001401164</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1851,21 +1847,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4001337045</v>
+        <v>4001355584</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Appartement à Genève</t>
+          <t>Studio komplett möbliert und ausgestattet</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+          <t>Unterfeldstrasse 4, 8050 Zürich</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1875,7 +1871,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1890,46 +1886,46 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001337045</t>
+          <t>https://www.homegate.ch/rent/4001355584</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>1.5</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1490.0, '2024-18-08'), (1490.0, '2024-20-08'), (1490.0, '2024-21-08'), (1490.0, '2024-22-08'), (1490.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4001406104</v>
+        <v>4001356877</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
+          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Birnbaumstrasse 17, 8050 Zürich</t>
+          <t>1227 Acacias</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1939,7 +1935,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1954,18 +1950,18 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001406104</t>
+          <t>https://www.homegate.ch/rent/4001356877</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1979,16 +1975,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4001356877</v>
+        <v>4001320202</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Appartement Location - Bon emplacement - Disponible imémédiatement.</t>
+          <t>Studio à la Servette.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1227 Acacias</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2003,7 +1999,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2018,14 +2014,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001356877</t>
+          <t>https://www.homegate.ch/rent/4001320202</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2043,16 +2039,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4001320202</v>
+        <v>4001337045</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Studio à la Servette.</t>
+          <t>Appartement à Genève</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1202 Genève</t>
+          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2067,7 +2063,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2082,18 +2078,18 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320202</t>
+          <t>https://www.homegate.ch/rent/4001337045</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>1.5</v>
       </c>
       <c r="K26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
+          <t>[(1500.0, '2024-18-08'), (1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -2101,27 +2097,27 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4001366897</v>
+        <v>4001406104</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces à Plainpalais.</t>
+          <t>Gemütliches 2.5 Zimmer Dachwohnung in Zürich Oerlikon</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1205 Genève</t>
+          <t>Birnbaumstrasse 17, 8050 Zürich</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2131,7 +2127,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2146,41 +2142,41 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366897</t>
+          <t>https://www.homegate.ch/rent/4001406104</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
+          <t>[(1500.0, '2024-21-08'), (1500.0, '2024-22-08'), (1500.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4001351379</v>
+        <v>4001402351</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
+          <t>Appartement de 2 pièces à la Servette.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rue du Nant 23, 1207 Genève</t>
+          <t>1202 Genève</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2195,7 +2191,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2210,22 +2206,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351379</t>
+          <t>https://www.homegate.ch/rent/4001402351</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
+          <t>[(1500.0, '2024-20-08'), (1500.0, '2024-21-08'), (1500.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2235,16 +2231,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4001373053</v>
+        <v>4001366897</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Appartement lumineux de 30 m situé dans 1203</t>
+          <t>Appartement de 2 pièces à Plainpalais.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rue Daubin, 1203 Genève</t>
+          <t>1205 Genève</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2259,7 +2255,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2274,22 +2270,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001373053</t>
+          <t>https://www.homegate.ch/rent/4001366897</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>30</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
+          <t>[(1505.0, '2024-18-08'), (1505.0, '2024-20-08'), (1505.0, '2024-21-08'), (1505.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1520</v>
+        <v>1505</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2299,16 +2295,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4001364077</v>
+        <v>4001351379</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Studio situé aux Pâquis</t>
+          <t>Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1201 Genève</t>
+          <t>Rue du Nant 23, 1207 Genève</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2323,7 +2319,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2338,41 +2334,41 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001364077</t>
+          <t>https://www.homegate.ch/rent/4001351379</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
+          <t>[(1510.0, '2024-18-08'), (1510.0, '2024-20-08'), (1510.0, '2024-21-08'), (1510.0, '2024-22-08'), (1510.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1550</v>
+        <v>1510</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4001343788</v>
+        <v>4001373053</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Meyrin.</t>
+          <t>Appartement lumineux de 30 m situé dans 1203</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1217 Meyrin</t>
+          <t>Rue Daubin, 1203 Genève</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2387,7 +2383,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2402,22 +2398,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001343788</t>
+          <t>https://www.homegate.ch/rent/4001373053</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K31" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
+          <t>[(1520.0, '2024-18-08'), (1520.0, '2024-20-08'), (1520.0, '2024-21-08'), (1520.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1558</v>
+        <v>1520</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2427,21 +2423,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4001133546</v>
+        <v>4001364077</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2-Zimmer-Wohnung an bester Lage</t>
+          <t>Studio situé aux Pâquis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Hallwylstrasse 40, 8004 Zürich</t>
+          <t>1201 Genève</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2451,7 +2447,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2466,22 +2462,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001133546</t>
+          <t>https://www.homegate.ch/rent/4001364077</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
+          <t>[(1550.0, '2024-18-08'), (1550.0, '2024-20-08'), (1550.0, '2024-21-08'), (1550.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2491,21 +2487,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4001390278</v>
+        <v>4001343788</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gemütliche Single-Wohnung</t>
+          <t>Appartement de 3 pièces à Meyrin.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
+          <t>1217 Meyrin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2515,7 +2511,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2530,22 +2526,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001390278</t>
+          <t>https://www.homegate.ch/rent/4001343788</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+          <t>[(1558.0, '2024-18-08'), (1558.0, '2024-20-08'), (1558.0, '2024-21-08'), (1558.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1590</v>
+        <v>1558</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2555,21 +2551,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4001383897</v>
+        <v>4001133546</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Les Hauts de Saint-Jean</t>
+          <t>2-Zimmer-Wohnung an bester Lage</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
+          <t>Hallwylstrasse 40, 8004 Zürich</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2579,7 +2575,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2594,46 +2590,46 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383897</t>
+          <t>https://www.homegate.ch/rent/4001133546</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
+          <t>[(1559.0, '2024-18-08'), (1559.0, '2024-20-08'), (1559.0, '2024-21-08'), (1559.0, '2024-22-08'), (1559.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1590</v>
+        <v>1559</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3001912350</v>
+        <v>4001383897</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
+          <t>Les Hauts de Saint-Jean</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Viktoriastrasse 29, 8057 Zürich</t>
+          <t>Rue de l'Encyclopédie 7, 1201 Genève</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2643,7 +2639,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8973</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2658,46 +2654,46 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/3001912350</t>
+          <t>https://www.homegate.ch/rent/4001383897</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4001292968</v>
+        <v>4001390278</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13 Rue Sautter, 1.5 pièce</t>
+          <t>Gemütliche Single-Wohnung</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rue Sautter 13, 1205 Genève</t>
+          <t>Riedenhaldenstrasse 18, 8046 Zürich</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2707,7 +2703,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2722,46 +2718,46 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001292968</t>
+          <t>https://www.homegate.ch/rent/4001390278</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[(1608.0, '2024-18-08'), (1608.0, '2024-20-08'), (1608.0, '2024-21-08')]</t>
+          <t>[(1590.0, '2024-18-08'), (1590.0, '2024-20-08'), (1590.0, '2024-21-08'), (1590.0, '2024-22-08'), (1590.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1608</v>
+        <v>1590</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-21-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4001389721</v>
+        <v>3001912350</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Studio in Geneva</t>
+          <t>1.5 Room City Pop Apartment in Zurich-Oerlikon</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Grand-Rue 12, 1204 Genève</t>
+          <t>Viktoriastrasse 29, 8057 Zürich</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2771,7 +2767,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2786,41 +2782,41 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389721</t>
+          <t>https://www.homegate.ch/rent/3001912350</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>1.5</v>
       </c>
       <c r="K37" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
+          <t>[(1600.0, '2024-18-08'), (1600.0, '2024-20-08'), (1600.0, '2024-21-08'), (1600.0, '2024-22-08'), (1600.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4001405543</v>
+        <v>4001389721</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
+          <t>Studio in Geneva</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rue de la Filature 23, 1227 Carouge GE</t>
+          <t>Grand-Rue 12, 1204 Genève</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2835,7 +2831,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2850,41 +2846,41 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001405543</t>
+          <t>https://www.homegate.ch/rent/4001389721</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>1.5</v>
       </c>
       <c r="K38" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
+          <t>[(1610.0, '2024-18-08'), (1610.0, '2024-20-08'), (1610.0, '2024-21-08'), (1610.0, '2024-22-08'), (1610.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4001328195</v>
+        <v>4001405543</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Studio situé aux Servettes</t>
+          <t>Spacieux studio en attique dans le quartier prisé de Carouge disponible au 16 septembre</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rue de la Filature 23, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2899,7 +2895,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2914,22 +2910,22 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001328195</t>
+          <t>https://www.homegate.ch/rent/4001405543</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K39" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
+          <t>[(1612.0, '2024-21-08'), (1612.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2997,22 +2993,22 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4001297083</v>
+        <v>4001328195</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
+          <t>Studio situé aux Servettes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3027,7 +3023,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3042,22 +3038,22 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001297083</t>
+          <t>https://www.homegate.ch/rent/4001328195</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
+          <t>[(1554.0, '2024-18-08'), (1554.0, '2024-20-08'), (1620.0, '2024-21-08'), (1620.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3067,16 +3063,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4001066000</v>
+        <v>4001297083</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces au 2ème étage</t>
+          <t>Appartement de 2 pièces au 5ème en face du Parc la Grange</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rue Voltaire 31, 1201 Genève</t>
+          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3091,7 +3087,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3106,22 +3102,22 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001066000</t>
+          <t>https://www.homegate.ch/rent/4001297083</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
+          <t>[(1630.0, '2024-18-08'), (1630.0, '2024-20-08'), (1630.0, '2024-21-08'), (1630.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3131,21 +3127,21 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4001361662</v>
+        <v>4001410938</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.0 Zimmerwohnung in Zürich</t>
+          <t>Un superbe studio à deux pas du lac !</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dübendorfstrasse 333, 8051 Zürich</t>
+          <t>Rue de Lausanne 145, 1202 Genève</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3155,7 +3151,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3170,46 +3166,46 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001361662</t>
+          <t>https://www.homegate.ch/rent/4001410938</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
+          <t>[(1640.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4001402922</v>
+        <v>4001066000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
+          <t>Appartement de 2 pièces au 2ème étage</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Buchzelgstrasse 91, 8053 Zürich</t>
+          <t>Rue Voltaire 31, 1201 Genève</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3219,7 +3215,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3234,41 +3230,41 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001402922</t>
+          <t>https://www.homegate.ch/rent/4001066000</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
+          <t>[(1640.0, '2024-18-08'), (1640.0, '2024-20-08'), (1640.0, '2024-21-08'), (1640.0, '2024-22-08'), (1640.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4001386498</v>
+        <v>4001361662</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Singlewohnung in Zürich Seebach Kopie</t>
+          <t>2.0 Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Arianestrasse 11, 8052 Zürich</t>
+          <t>Dübendorfstrasse 333, 8051 Zürich</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3283,7 +3279,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3298,41 +3294,41 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386498</t>
+          <t>https://www.homegate.ch/rent/4001361662</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
+          <t>[(1643.0, '2024-18-08'), (1643.0, '2024-20-08'), (1643.0, '2024-21-08'), (1643.0, '2024-22-08'), (1643.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4001383533</v>
+        <v>4001402922</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
+          <t>Behagliche Wohnung in ruhiger und grüner Umgebung</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Felsenrainstrasse 15, 8052 Zürich</t>
+          <t>Buchzelgstrasse 91, 8053 Zürich</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3347,7 +3343,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3362,46 +3358,46 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001383533</t>
+          <t>https://www.homegate.ch/rent/4001402922</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
+          <t>[(1650.0, '2024-20-08'), (1650.0, '2024-21-08'), (1650.0, '2024-22-08'), (1650.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4001342150</v>
+        <v>4001386498</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chambre a louer au Eaux-Vives!</t>
+          <t>Singlewohnung in Zürich Seebach Kopie</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chemin Neuf, 1207 Geneva</t>
+          <t>Arianestrasse 11, 8052 Zürich</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3411,7 +3407,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3426,46 +3422,46 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001342150</t>
+          <t>https://www.homegate.ch/rent/4001386498</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K47" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
+          <t>[(1654.0, '2024-18-08'), (1654.0, '2024-20-08'), (1654.0, '2024-21-08'), (1654.0, '2024-22-08'), (1654.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4001313115</v>
+        <v>4001383533</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Studio à Genève.</t>
+          <t>2-Zimmerwohnung an attraktiver Lage zentral beim Bahnhof Seebach</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1204 Genève</t>
+          <t>Felsenrainstrasse 15, 8052 Zürich</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3475,7 +3471,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3490,22 +3486,22 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001313115</t>
+          <t>https://www.homegate.ch/rent/4001383533</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
+          <t>[(1663.0, '2024-18-08'), (1663.0, '2024-20-08'), (1663.0, '2024-21-08'), (1663.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3515,21 +3511,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4001364577</v>
+        <v>4001342150</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
+          <t>Chambre a louer au Eaux-Vives!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Glatttalstrasse 79, 8052 Zürich</t>
+          <t>Chemin Neuf, 1207 Geneva</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3539,7 +3535,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3549,27 +3545,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001364577</t>
+          <t>https://www.homegate.ch/rent/4001342150</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
+          <t>[(1665.0, '2024-18-08'), (1665.0, '2024-20-08'), (1665.0, '2024-21-08'), (1665.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3579,16 +3575,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4001259400</v>
+        <v>4001313115</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
+          <t>Studio à Genève.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+          <t>1204 Genève</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3603,7 +3599,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3618,22 +3614,22 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001259400</t>
+          <t>https://www.homegate.ch/rent/4001313115</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K50" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
+          <t>[(1670.0, '2024-18-08'), (1670.0, '2024-20-08'), (1670.0, '2024-21-08'), (1670.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3643,16 +3639,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4001385233</v>
+        <v>4001364577</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Charmantes zentrales Studio zu mieten</t>
+          <t>EINMALIG! Top Singlewohnung an zentraler Lage</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aprikosenstrasse 5, 8051 Zürich</t>
+          <t>Glatttalstrasse 79, 8052 Zürich</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3667,7 +3663,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3677,27 +3673,27 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385233</t>
+          <t>https://www.immoscout24.ch/rent/4001364577</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>1.5</v>
       </c>
       <c r="K51" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
+          <t>[(1678.0, '2024-18-08'), (1678.0, '2024-20-08'), (1678.0, '2024-21-08'), (1678.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3707,21 +3703,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4001385958</v>
+        <v>4001259400</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
+          <t>Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3731,7 +3727,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3741,51 +3737,51 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001385958</t>
+          <t>https://www.homegate.ch/rent/4001259400</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
+          <t>[(1680.0, '2024-18-08'), (1680.0, '2024-20-08'), (1680.0, '2024-21-08'), (1680.0, '2024-22-08'), (1680.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1700</v>
+        <v>1680</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4001407318</v>
+        <v>4001385233</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
+          <t>Charmantes zentrales Studio zu mieten</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
+          <t>Aprikosenstrasse 5, 8051 Zürich</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3795,7 +3791,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3810,41 +3806,41 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407318</t>
+          <t>https://www.homegate.ch/rent/4001385233</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K53" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
+          <t>[(1690.0, '2024-18-08'), (1690.0, '2024-20-08'), (1690.0, '2024-21-08'), (1690.0, '2024-22-08'), (1690.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1710</v>
+        <v>1690</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4001380884</v>
+        <v>4001385958</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
+          <t>Zentrale Wohnung zw. Bahnhof Oerlikon und Berninaplatz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wiesliacher 95, 8053 Zürich</t>
+          <t>Schaffhauserstrasse 280, 8050 Zürich</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3859,7 +3855,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8053</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3869,27 +3865,27 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001380884</t>
+          <t>https://www.immoscout24.ch/rent/4001385958</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K54" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
+          <t>[(1700.0, '2024-18-08'), (1700.0, '2024-20-08'), (1700.0, '2024-21-08'), (1700.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3899,21 +3895,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4001333905</v>
+        <v>4001407318</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
+          <t>Appartement de 3 pièces avec balcon, situé au rez-de-chaussé.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
+          <t>Chemin Du-Villard 2, 1219 CHATELAINE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3923,7 +3919,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3938,46 +3934,46 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333905</t>
+          <t>https://www.homegate.ch/rent/4001407318</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
+          <t>[(1710.0, '2024-22-08'), (1710.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4001151789</v>
+        <v>4001333905</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
+          <t>Tolle Singlewohnung an bester städtischer Lage!</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>Eugen-Huber-Strasse 64, 8048 Zürich</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3987,7 +3983,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4002,22 +3998,22 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001151789</t>
+          <t>https://www.homegate.ch/rent/4001333905</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>1.5</v>
       </c>
       <c r="K56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4027,21 +4023,21 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4001407904</v>
+        <v>4001380884</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
+          <t>Schöne, naturnahe Wohnlage in Zürich-Witikon</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Wiesliacher 95, 8053 Zürich</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4051,7 +4047,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4066,41 +4062,41 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001407904</t>
+          <t>https://www.homegate.ch/rent/4001380884</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K57" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
+          <t>[(1715.0, '2024-18-08'), (1715.0, '2024-20-08'), (1715.0, '2024-21-08'), (1715.0, '2024-22-08'), (1715.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4001372133</v>
+        <v>4001151789</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quartier des Eaux-Vives</t>
+          <t>Joli studio au 3ème étage en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4115,7 +4111,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4130,46 +4126,46 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372133</t>
+          <t>https://www.homegate.ch/rent/4001151789</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K58" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
+          <t>[(1718.0, '2024-18-08'), (1718.0, '2024-20-08'), (1718.0, '2024-21-08'), (1718.0, '2024-22-08'), (1718.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1750</v>
+        <v>1718</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4001389683</v>
+        <v>4001407904</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
+          <t>A saisir ! Bel appartement à côté de la gare CFF de Genève Cornavin !</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Karstlernstrasse 6, 8048 Zürich</t>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4179,7 +4175,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4194,46 +4190,46 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001389683</t>
+          <t>https://www.homegate.ch/rent/4001407904</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
+          <t>[(1720.0, '2024-22-08'), (1720.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1751</v>
+        <v>1720</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4001390016</v>
+        <v>4001372133</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
+          <t>Quartier des Eaux-Vives</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
+          <t>Avenue Théodore Flournoy 8, 1207 Genève</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4243,7 +4239,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>8052</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4258,41 +4254,41 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001390016</t>
+          <t>https://www.homegate.ch/rent/4001372133</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1750.0, '2024-18-08'), (1750.0, '2024-20-08'), (1750.0, '2024-21-08'), (1750.0, '2024-22-08'), (1750.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4001400576</v>
+        <v>4001389683</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
+          <t>2.5-ZWG im 1.OG, in 8048 Zürich zu vermieten</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8051 Zürich</t>
+          <t>Karstlernstrasse 6, 8048 Zürich</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4307,7 +4303,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Zürich</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4322,46 +4318,46 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400576</t>
+          <t>https://www.homegate.ch/rent/4001389683</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>2.5</v>
       </c>
       <c r="K61" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
+          <t>[(1751.0, '2024-18-08'), (1751.0, '2024-20-08'), (1751.0, '2024-21-08'), (1751.0, '2024-22-08'), (1751.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4001395817</v>
+        <v>4001400576</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>hoyou: Die Immobilie wird zum Tausch angeboten</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>8051 Zürich</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4371,7 +4367,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4386,18 +4382,18 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395817</t>
+          <t>https://www.homegate.ch/rent/4001400576</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
+          <t>[(1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -4411,21 +4407,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4001395818</v>
+        <v>4001390016</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VERSOIX - 3 pièces</t>
+          <t>Moderne 1.5 Zimmer-Wohnung in Zürich (Neubau)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rte de Sauverny 20, 1290 Versoix</t>
+          <t>Schaffhauserstrasse 453, 8052 Zürich</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4435,7 +4431,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>8052</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4450,14 +4446,14 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001395818</t>
+          <t>https://www.homegate.ch/rent/4001390016</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K63" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4469,27 +4465,27 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4001362025</v>
+        <v>4001395817</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
+          <t>VERSOIX - 3 pièces</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4499,7 +4495,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4514,41 +4510,41 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001362025</t>
+          <t>https://www.homegate.ch/rent/4001395817</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4001156178</v>
+        <v>4001395818</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A saisir ! Au coeur de Genève !</t>
+          <t>VERSOIX - 3 pièces</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>rue Chantepoulet 12, 1201 Genève</t>
+          <t>Rte de Sauverny 20, 1290 Versoix</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4563,7 +4559,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4578,41 +4574,41 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001156178</t>
+          <t>https://www.homegate.ch/rent/4001395818</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
+          <t>[(1760.0, '2024-18-08'), (1760.0, '2024-20-08'), (1760.0, '2024-21-08'), (1760.0, '2024-22-08'), (1760.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4001292988</v>
+        <v>4001156178</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>A saisir ! Au coeur de Genève !</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4627,7 +4623,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4642,41 +4638,41 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001292988</t>
+          <t>https://www.homegate.ch/rent/4001156178</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4001318915</v>
+        <v>4001362025</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Erstvermietung</t>
+          <t>3-Zimmerwohnung mit Gartensitzplatz</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
+          <t>Grosswiesenstrasse 140, 8051 Zürich</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4691,7 +4687,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>8046</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4706,46 +4702,46 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001318915</t>
+          <t>https://www.homegate.ch/rent/4001362025</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1780.0, '2024-18-08'), (1780.0, '2024-20-08'), (1780.0, '2024-21-08'), (1780.0, '2024-22-08'), (1780.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4001351110</v>
+        <v>4001292988</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ihre neue Wohnung im Grünen?</t>
+          <t>Appartement de 3 pièces à Carouge.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Balberstrasse 74, 8038 Zürich</t>
+          <t>1227 Carouge</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4755,7 +4751,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4770,22 +4766,22 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001351110</t>
+          <t>https://www.homegate.ch/rent/4001292988</t>
         </is>
       </c>
       <c r="J68" t="n">
         <v>3</v>
       </c>
       <c r="K68" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
+          <t>[(1785.0, '2024-18-08'), (1785.0, '2024-20-08'), (1785.0, '2024-21-08'), (1785.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -4859,16 +4855,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4001403040</v>
+        <v>4001318915</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Schöne Stadtnahe Wohnung</t>
+          <t>Erstvermietung</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
+          <t>Riedenhaldenstrasse 263, 8046 Zürich</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4883,7 +4879,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8046</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4898,46 +4894,46 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001403040</t>
+          <t>https://www.homegate.ch/rent/4001318915</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K70" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4001336703</v>
+        <v>4001351110</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Centre-ville / Proche de la gare Cornavin</t>
+          <t>Ihre neue Wohnung im Grünen?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+          <t>Balberstrasse 74, 8038 Zürich</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4947,7 +4943,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4962,46 +4958,46 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001336703</t>
+          <t>https://www.homegate.ch/rent/4001351110</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+          <t>[(1790.0, '2024-18-08'), (1790.0, '2024-20-08'), (1790.0, '2024-21-08'), (1790.0, '2024-22-08'), (1790.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4001349266</v>
+        <v>4001403040</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Schöne Stadtnahe Wohnung</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
+          <t>Hofwiesenstrasse 200/202, 8057 Zürich</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5011,7 +5007,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5026,26 +5022,26 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001349266</t>
+          <t>https://www.homegate.ch/rent/4001403040</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
+          <t>[(1791.0, '2024-20-08'), (1791.0, '2024-21-08'), (1791.0, '2024-22-08'), (1791.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
@@ -5115,16 +5111,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4001320200</v>
+        <v>4001349266</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Appartement de 2 pièces aux Eaux-Vives</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1207 Genève</t>
+          <t>Route de Meinier 15, 1253 Vandoeuvres</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5139,7 +5135,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5154,41 +5150,41 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001320200</t>
+          <t>https://www.homegate.ch/rent/4001349266</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4001245886</v>
+        <v>4001336703</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
+          <t>Centre-ville / Proche de la gare Cornavin</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5203,7 +5199,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5218,46 +5214,46 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001245886</t>
+          <t>https://www.homegate.ch/rent/4001336703</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K75" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1800.0, '2024-18-08'), (1800.0, '2024-20-08'), (1800.0, '2024-21-08'), (1800.0, '2024-22-08'), (1800.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4001390113</v>
+        <v>4001320200</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
+          <t>Appartement de 2 pièces aux Eaux-Vives</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Baslerstrasse 107, 8048 Zürich</t>
+          <t>1207 Genève</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5267,7 +5263,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5277,27 +5273,27 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/4001390113</t>
+          <t>https://www.homegate.ch/rent/4001320200</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1810.0, '2024-18-08'), (1810.0, '2024-20-08'), (1810.0, '2024-21-08'), (1810.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5307,16 +5303,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4001386972</v>
+        <v>4001409556</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Bel appartement dans le quartier de la Servette</t>
+          <t>133 Rte d'Hermance, appartement de 3 pièces à Collonge-Bellerive</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rue Louis-Favre 6, 1201 Genève</t>
+          <t>Route d'Hermance 133, 1245 Collonge-Bellerive</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5331,7 +5327,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5346,41 +5342,41 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386972</t>
+          <t>https://www.homegate.ch/rent/4001409556</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
+          <t>[(1810.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4001341049</v>
+        <v>4001390113</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
+          <t>Grosse 1.5 Zimmer Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hönggerstrasse 24, 8037 Zürich</t>
+          <t>Baslerstrasse 107, 8048 Zürich</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5395,7 +5391,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5405,46 +5401,46 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001341049</t>
+          <t>https://www.immoscout24.ch/rent/4001390113</t>
         </is>
       </c>
       <c r="J78" t="n">
         <v>1.5</v>
       </c>
       <c r="K78" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4001371525</v>
+        <v>4001245886</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Carouge.</t>
+          <t>Charmant appartement de 2 pièces en étage élevé aux Eaux-vives</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1227 Carouge</t>
+          <t>Avenue Pictet-de-Rochemont, 1207 Genève</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5459,7 +5455,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5474,41 +5470,41 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001371525</t>
+          <t>https://www.homegate.ch/rent/4001245886</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4001350715</v>
+        <v>4001386972</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Joli studio en plein coeur de la Vieille-Ville</t>
+          <t>Bel appartement dans le quartier de la Servette</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
+          <t>Rue Louis-Favre 6, 1201 Genève</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5523,7 +5519,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5538,46 +5534,46 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001350715</t>
+          <t>https://www.homegate.ch/rent/4001386972</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(1820.0, '2024-18-08'), (1820.0, '2024-20-08'), (1820.0, '2024-21-08'), (1820.0, '2024-22-08'), (1820.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1845</v>
+        <v>1820</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4001369430</v>
+        <v>4001341049</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bel appartement de 3 pièces au 3e étage.</t>
+          <t>1.5 Zimmer Wohnungen 36 m2 zu vermieten</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rue des Noirettes 27, 1227 Carouge</t>
+          <t>Hönggerstrasse 24, 8037 Zürich</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5587,7 +5583,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5602,46 +5598,46 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001369430</t>
+          <t>https://www.homegate.ch/rent/4001341049</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K81" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
+          <t>[(1840.0, '2024-18-08'), (1840.0, '2024-20-08'), (1840.0, '2024-21-08'), (1840.0, '2024-22-08'), (1840.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4001298127</v>
+        <v>4001350715</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Wohnen mit Aussicht</t>
+          <t>Joli studio en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Rue Etienne-Dumont 5, 1204 Genève</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5651,7 +5647,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5666,41 +5662,41 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298127</t>
+          <t>https://www.homegate.ch/rent/4001350715</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K82" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4001366896</v>
+        <v>4001369430</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces à Plainpalais.</t>
+          <t>Bel appartement de 3 pièces au 3e étage.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1203 Genève</t>
+          <t>Rue des Noirettes 27, 1227 Carouge</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5715,7 +5711,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Genève</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5730,41 +5726,41 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001366896</t>
+          <t>https://www.homegate.ch/rent/4001369430</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08'), (1845.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4001275872</v>
+        <v>4001371525</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
+          <t>Appartement de 3 pièces à Carouge.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rue de la Cité 9bis, 1204 Genève</t>
+          <t>1227 Carouge</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5779,7 +5775,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5794,22 +5790,22 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001275872</t>
+          <t>https://www.homegate.ch/rent/4001371525</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
+          <t>[(1845.0, '2024-18-08'), (1845.0, '2024-20-08'), (1845.0, '2024-21-08'), (1845.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -5819,21 +5815,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4001333869</v>
+        <v>4001298127</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
+          <t>Wohnen mit Aussicht</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5843,7 +5839,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5858,46 +5854,46 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333869</t>
+          <t>https://www.homegate.ch/rent/4001298127</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1849.0, '2024-18-08'), (1849.0, '2024-20-08'), (1849.0, '2024-21-08'), (1849.0, '2024-22-08'), (1849.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4001398794</v>
+        <v>4001333869</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wohnen neben Sportplatz und Glattzentrum</t>
+          <t>Quartier de la Gradelle - Chêne-Bougeries</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
+          <t>Avenue des Amazones 8, 1224 Chêne-Bougeries</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5907,7 +5903,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5922,18 +5918,18 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001398794</t>
+          <t>https://www.homegate.ch/rent/4001333869</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -5947,16 +5943,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4001386021</v>
+        <v>4001398794</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
+          <t>Wohnen neben Sportplatz und Glattzentrum</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Geeringstrasse 42, 8049 Zürich</t>
+          <t>Heerenschürlistrasse 34, 8051 Zürich</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5971,7 +5967,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5986,41 +5982,41 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001386021</t>
+          <t>https://www.homegate.ch/rent/4001398794</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-20-08'), (1850.0, '2024-23-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1855</v>
+        <v>1850</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4001221422</v>
+        <v>4001410711</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zentrale Lage - idyllisch und ruhig</t>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jungholzstrasse 20, 8050 Zürich</t>
+          <t>Florastrasse 7, 8008 Zürich</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6035,7 +6031,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6050,41 +6046,41 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001221422</t>
+          <t>https://www.homegate.ch/rent/4001410711</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>1.5</v>
       </c>
       <c r="K88" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4001404338</v>
+        <v>4001366896</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
+          <t>Appartement de 3 pièces à Plainpalais.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rue de la Calle 34, 1213 ONEX</t>
+          <t>1203 Genève</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6099,7 +6095,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>Genève</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6114,22 +6110,22 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001404338</t>
+          <t>https://www.homegate.ch/rent/4001366896</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6139,21 +6135,21 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4001360173</v>
+        <v>4001275872</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
+          <t>Bel appartement en plein coeur de la Vieille-Ville</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wartauweg 19, 8049 Zürich</t>
+          <t>Rue de la Cité 9bis, 1204 Genève</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6163,7 +6159,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>8049</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6178,41 +6174,41 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001360173</t>
+          <t>https://www.homegate.ch/rent/4001275872</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1850.0, '2024-18-08'), (1850.0, '2024-20-08'), (1850.0, '2024-21-08'), (1850.0, '2024-22-08'), (1850.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4001400534</v>
+        <v>4001386021</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>neu renovierte 3-Zimmerwohnung</t>
+          <t>Ihr neues Zuhause - gemütliche Maisonettewohnung im Rütihof</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Am Luchsgraben 9, 8051 Zürich</t>
+          <t>Geeringstrasse 42, 8049 Zürich</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6227,7 +6223,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8102</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6242,41 +6238,41 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001400534</t>
+          <t>https://www.homegate.ch/rent/4001386021</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K91" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1855.0, '2024-18-08'), (1855.0, '2024-20-08'), (1855.0, '2024-21-08'), (1855.0, '2024-22-08'), (1855.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4001298128</v>
+        <v>4001221422</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
+          <t>Zentrale Lage - idyllisch und ruhig</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Luegislandstr. 56, 8051 Zürich</t>
+          <t>Jungholzstrasse 20, 8050 Zürich</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6291,7 +6287,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6306,46 +6302,46 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001298128</t>
+          <t>https://www.homegate.ch/rent/4001221422</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K92" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
+          <t>[(1866.0, '2024-18-08'), (1866.0, '2024-20-08'), (1866.0, '2024-21-08'), (1866.0, '2024-22-08'), (1866.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4001333934</v>
+        <v>4001404338</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Im Grünen in Zürich-Altstetten</t>
+          <t>Appartement de 5 pièces avec balcon, situé au 8ème étage.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vetterliweg 82, 8048 Zürich</t>
+          <t>Rue de la Calle 34, 1213 ONEX</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Geneve</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6355,7 +6351,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6370,41 +6366,41 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001333934</t>
+          <t>https://www.homegate.ch/rent/4001404338</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K93" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3001034675</v>
+        <v>4001298128</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.5 Zimmer in Oerlikon</t>
+          <t>zentrale und schöne 3-Zimmerwohnung in Zürich</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Friesstrasse 8, 8050 Zürich</t>
+          <t>Luegislandstr. 56, 8051 Zürich</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6419,7 +6415,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6429,46 +6425,46 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>immoscout24</t>
+          <t>homegate</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.immoscout24.ch/rent/3001034675</t>
+          <t>https://www.homegate.ch/rent/4001298128</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4001372957</v>
+        <v>4001400534</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Urbanes Wohnen im Kreis 4</t>
+          <t>neu renovierte 3-Zimmerwohnung</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hildastrasse 1, 8004 Zürich</t>
+          <t>Am Luchsgraben 9, 8051 Zürich</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6483,7 +6479,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8051</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6498,46 +6494,46 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001372957</t>
+          <t>https://www.homegate.ch/rent/4001400534</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4001313304</v>
+        <v>4001360173</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2 pièces au Pâquis proche du lac</t>
+          <t>Erstbezug nach Sanierung: 1.5-Zimmerwohnung mit Charme</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Rue des Pâquis 53, 1201 Genève</t>
+          <t>Wartauweg 19, 8049 Zürich</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6547,7 +6543,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>8049</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6562,41 +6558,41 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001313304</t>
+          <t>https://www.homegate.ch/rent/4001360173</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K96" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1870.0, '2024-18-08'), (1870.0, '2024-20-08'), (1870.0, '2024-21-08'), (1870.0, '2024-22-08'), (1870.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1900</v>
+        <v>1870</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4001187616</v>
+        <v>4001333934</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
+          <t>Im Grünen in Zürich-Altstetten</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eidmattstrasse 6, 8032 Zürich</t>
+          <t>Vetterliweg 82, 8048 Zürich</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6611,7 +6607,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6626,46 +6622,46 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001187616</t>
+          <t>https://www.homegate.ch/rent/4001333934</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+          <t>[(1880.0, '2024-18-08'), (1880.0, '2024-20-08'), (1880.0, '2024-21-08'), (1880.0, '2024-22-08'), (1880.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4001370602</v>
+        <v>3001034675</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Appartement de 3 pièces au 3ème étage</t>
+          <t>1.5 Zimmer in Oerlikon</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Avenue Blanc 34, 1202 Genève</t>
+          <t>Friesstrasse 8, 8050 Zürich</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6675,7 +6671,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6685,27 +6681,27 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>homegate</t>
+          <t>immoscout24</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001370602</t>
+          <t>https://www.immoscout24.ch/rent/3001034675</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K98" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08')]</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -6715,16 +6711,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4001385645</v>
+        <v>4001372957</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
+          <t>Urbanes Wohnen im Kreis 4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Uetlibergstrasse 83, 8045 Zürich</t>
+          <t>Hildastrasse 1, 8004 Zürich</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6739,7 +6735,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8045</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6754,26 +6750,26 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001385645</t>
+          <t>https://www.homegate.ch/rent/4001372957</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+          <t>[(1890.0, '2024-18-08'), (1890.0, '2024-20-08'), (1890.0, '2024-21-08'), (1890.0, '2024-22-08'), (1890.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>
@@ -6843,21 +6839,21 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4001382538</v>
+        <v>4001385645</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Charmant appartement en attique de 3 pièces situé à Bernex</t>
+          <t>ZENTRAL WOHNEN IM KREIS 3 - NÄHE BAHNHOF BINZ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1233 Bernex</t>
+          <t>Uetlibergstrasse 83, 8045 Zürich</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Geneve</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6867,7 +6863,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6882,18 +6878,18 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.homegate.ch/rent/4001382538</t>
+          <t>https://www.homegate.ch/rent/4001385645</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K101" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -6901,7 +6897,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2024-22-08</t>
+          <t>2024-23-08</t>
         </is>
       </c>
     </row>

--- a/streamlit/plotar_mapa/enderecos_com_cep.xlsx
+++ b/streamlit/plotar_mapa/enderecos_com_cep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1216</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6896,6 +6896,6394 @@
         <v>1900</v>
       </c>
       <c r="N101" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4001313304</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2 pièces au Pâquis proche du lac</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rue des Pâquis 53, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313304</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4001382538</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Charmant appartement en attique de 3 pièces situé à Bernex</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1233 Bernex</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1233</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001382538</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>60</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4001370602</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces au 3ème étage</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Avenue Blanc 34, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370602</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>50</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (1900.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1900</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4001403450</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Singlewohnung nähe Irchelpark - Befristet bis 31.03.2025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 165, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001403450</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>54</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>[(1910.0, '2024-21-08'), (1910.0, '2024-22-08'), (1910.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4001409322</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Meyrin - Rue Virginio-Malnati - 3 pièces au 1er étage, d'env 43m2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rue Virginio-Malnati, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001409322</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>43</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>[(1915.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1915</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4001315842</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Centre ville, 3 pièces à louer</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rue de Rive 13, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001315842</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>37</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>[(1915.0, '2024-18-08'), (1915.0, '2024-20-08'), (1915.0, '2024-21-08'), (1915.0, '2024-22-08'), (1915.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1915</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4001362833</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces à la Servette.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001362833</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>65</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>[(1920.0, '2024-18-08'), (1920.0, '2024-20-08'), (1920.0, '2024-21-08'), (1920.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4001384119</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Attraktive Wohnung an Top-Lage</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Engweg 1, 8006 Zürich</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8006</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001384119</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>36</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>[(1920.0, '2024-18-08'), (1920.0, '2024-20-08'), (1920.0, '2024-21-08'), (1920.0, '2024-22-08'), (1920.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4001408886</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Erstvermietung 2.5-Zimmer-Wohnung nach Totalsanierung - Idastrasse 23</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Idastrasse 23, 8003 Zürich</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8003</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001408886</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>42</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>[(1924.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1924</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4001363691</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>3 pièces aux Charmilles avec balcon proche des Organisations internationales disponible de suite</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Avenue Wendt 7, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001363691</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>3</v>
+      </c>
+      <c r="K111" t="n">
+        <v>53</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>[(1930.0, '2024-18-08'), (1930.0, '2024-20-08'), (1930.0, '2024-21-08'), (1930.0, '2024-22-08'), (1930.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1930</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>4001275211</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Wohnen an ruhiger Lage</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>In der Looren 48, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001275211</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K112" t="n">
+        <v>72</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>4001390013</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>helle und grosszügige Gartensitzplatzwohnung</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Frohbühlstrasse 8, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390013</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>75</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4001226511</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Kleine, herzige Single-Wohnung frisch saniert</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Schwandenholzstrasse 204, 8046 Zürich</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001226511</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>64</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>[(1940.0, '2024-18-08'), (1940.0, '2024-20-08'), (1940.0, '2024-21-08'), (1940.0, '2024-22-08'), (1940.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1940</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4001350536</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Studio au coeur de la vieille ville</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rue Etienne Dumont 5, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001350536</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>24</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>[(1945.0, '2024-18-08'), (1945.0, '2024-20-08'), (1945.0, '2024-21-08'), (1945.0, '2024-22-08'), (1945.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1945</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4001411209</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Charming 1.5-Room Apartment in for Sublet - 6 months</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Pfingstweidstrasse 104, 8005 Zürich</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001411209</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>54</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>[(1950.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4001351378</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Lumineux appartement au coeur des Eaux-Vives</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351378</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>43</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>[(1950.0, '2024-18-08'), (1950.0, '2024-20-08'), (1950.0, '2024-21-08'), (1950.0, '2024-22-08'), (1950.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1950</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>4001371001</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>BELLISSIMO MONOLOCALE A ZURIGO</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Käferholzstrasse 42, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001371001</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>38</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>[(1953.0, '2024-18-08'), (1953.0, '2024-20-08'), (1953.0, '2024-21-08'), (1953.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1953</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>4001357583</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Bel appartement lumineux à deux pas du Forum Meyrin</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rue des Boudines 23, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001357583</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>54</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>[(1960.0, '2024-18-08'), (1960.0, '2024-20-08'), (1960.0, '2024-21-08'), (1960.0, '2024-22-08'), (1960.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1960</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>4001404572</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Champel - Malagnou</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Avenue Théodore-Weber 36, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001404572</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>40</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>[(1965.0, '2024-21-08'), (1965.0, '2024-22-08'), (1965.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1965</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>4001394629</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Ruhige und sonnige 3-Zimmerwohnung in Zürich-Höngg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Vorhaldenstrasse 14, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001394629</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>75</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4001381067</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ruhige und sonnige 3-Zimmerwohnung in Zürich-Höngg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Vorhaldenstrasse 14, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001381067</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>75</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4001267854</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Wohnen an zentraler Lage</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Glattwiesenstrasse 20, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001267854</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>63</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>[(1970.0, '2024-18-08'), (1970.0, '2024-20-08'), (1970.0, '2024-21-08'), (1970.0, '2024-22-08'), (1970.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4001229849</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Appartement à Genève disponible immédiatement</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rue Guye 3, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001229849</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>43</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>[(1978.0, '2024-18-08'), (1978.0, '2024-20-08'), (1978.0, '2024-21-08'), (1978.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1978</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4001219148</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Modernes Wohnen im Guggachpark</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Käferholzstrasse 58, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001219148</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>39</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>[(1978.0, '2024-18-08'), (1978.0, '2024-20-08'), (1978.0, '2024-21-08'), (1978.0, '2024-22-08'), (1978.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1978</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4001387079</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Grosszügige 3-Zimmerwohung in gepflegter Liegenschaft - befristet bis 30.09.2026</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Heidwiesen 25, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>8051</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001387079</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>68</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>[(1980.0, '2024-18-08'), (1980.0, '2024-20-08'), (1980.0, '2024-21-08'), (1980.0, '2024-22-08'), (1980.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1980</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4001207854</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Studio an ruhiger Lage mit Gartensitzplatz</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Carl Spitteler-Strasse 70, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001207854</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>44</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>[(1980.0, '2024-18-08'), (1980.0, '2024-20-08'), (1980.0, '2024-21-08'), (1980.0, '2024-22-08'), (1980.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1980</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4001262928</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2 Rue de la Ferme, 2 pièces</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rue de la Ferme 2, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001262928</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>40</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>[(1980.0, '2024-18-08'), (1980.0, '2024-20-08'), (1980.0, '2024-21-08'), (1980.0, '2024-22-08'), (1980.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1980</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4001379375</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Apartment in Zurich</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 556, 8052 Zurich</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001379375</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>63</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>[(1985.0, '2024-18-08'), (1985.0, '2024-20-08'), (1985.0, '2024-21-08'), (1985.0, '2024-22-08'), (1985.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1985</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4001363690</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>4 pièces au coeur des Acacias proche de l'Arve disponible de suite</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rue Caroline 16, 1227 Les Acacias</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001363690</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>4</v>
+      </c>
+      <c r="K130" t="n">
+        <v>52</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>[(1985.0, '2024-18-08'), (1985.0, '2024-20-08'), (1985.0, '2024-21-08'), (1985.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1985</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4001364792</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1. - 28.9.2024 Zentrale Stadtwohnung 65m2 mit Garagenplatz</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Luisenstrasse, 8005 Zürich</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8031</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001364792</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>65</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>[(1990.0, '2024-18-08'), (1990.0, '2024-20-08'), (1990.0, '2024-21-08'), (1990.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4001345501</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rue de Moillebeau 57, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001345501</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K132" t="n">
+        <v>49</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>[(1990.0, '2024-18-08'), (1990.0, '2024-20-08'), (1990.0, '2024-21-08'), (1990.0, '2024-22-08'), (1990.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4001404574</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Proche aéroport et organisations internationales</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Avenue de Châtelaine 85, 1219 Châtelaine</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001404574</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>48</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>[(1990.0, '2024-21-08'), (1990.0, '2024-22-08'), (1990.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4001400821</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Proche organisations internationales</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rue Cramer 9, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001400821</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>48</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>[(1990.0, '2024-20-08'), (1990.0, '2024-21-08'), (1990.0, '2024-22-08'), (1990.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4001160530</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>City Pop - Your flexible solution for long and short stays!</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rue de la Coulouvrenière 40, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8973</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001160530</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>23</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>[(1992.0, '2024-18-08'), (1992.0, '2024-20-08'), (1992.0, '2024-21-08'), (1992.0, '2024-22-08'), (1992.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1992</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4001316783</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Moderne Wohnung in Altstetten</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Herrligweg 9, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001316783</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>26</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>[(1997.0, '2024-18-08'), (1997.0, '2024-20-08'), (1997.0, '2024-21-08'), (1997.0, '2024-22-08'), (1997.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1997</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4001364780</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Charmante Wohnung beim Bhf. Altstetten befristet bis 31.3.25</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001364780</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>60</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>[(1999.0, '2024-18-08'), (1999.0, '2024-20-08'), (1999.0, '2024-21-08'), (1999.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1999</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4001390213</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Moderne 2 Zimmer Wohnung 52m2 Nähe Bhf Oerlikon mit Balkon</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Bühlwiesenstrasse 20, 8001 Zürich</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390213</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>2</v>
+      </c>
+      <c r="K138" t="n">
+        <v>52</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>[(1999.0, '2024-18-08'), (1999.0, '2024-20-08'), (1999.0, '2024-21-08'), (1999.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1999</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4001385172</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>App. dernier étage à Carouge GE</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rue Vautier 21, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001385172</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>3</v>
+      </c>
+      <c r="K139" t="n">
+        <v>50</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4001395062</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mitten im Universitätsquartier von Zürich</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001395062</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>20</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08'), (2000.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4001187621</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Im Herzen von Zürich !</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Weinbergstrasse 23, 8001 Zurich</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001187621</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>30</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4000996884</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Befristet bis Ende Februar 2025 zu vermieten 4-Zimmer-Wohnung Zürich 2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Schulhausstrasse 50, 8002 Zürich</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8002</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000996884</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>4</v>
+      </c>
+      <c r="K142" t="n">
+        <v>101</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>[(2000.0, '2024-18-08'), (2000.0, '2024-20-08'), (2000.0, '2024-21-08'), (2000.0, '2024-22-08'), (2000.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4001287219</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Sanierte Wohnung in Zürich-Seebach</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Caspar Wüst-Strasse 42, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001287219</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>59</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>[(2009.0, '2024-18-08'), (2009.0, '2024-20-08'), (2009.0, '2024-21-08'), (2009.0, '2024-22-08'), (2009.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>2009</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4001392790</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Wohnen direkt beim HB Zürich</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Konradstrasse 20, 8005 Zürich</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8005</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001392790</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
+      <c r="K144" t="n">
+        <v>86</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>[(2010.0, '2024-18-08'), (2010.0, '2024-20-08'), (2010.0, '2024-21-08'), (2010.0, '2024-22-08'), (2010.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>2010</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4001390533</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Sanierte 3.0-Zimmerwohnung mit viel Charme!</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Uetlibergstrasse 129, 8045 Zürich</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390533</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>70</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>[(2014.0, '2024-18-08'), (2014.0, '2024-20-08'), (2014.0, '2024-21-08'), (2014.0, '2024-22-08'), (2014.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>2014</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>4001405908</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Sonnige 2 1/2 Zi. Wohnung mit Cheminée in Zürich Oerlikon/Grenze Neuaffoltern an Buslinie 80</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Kügeliloostrasse 50, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001405908</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>60</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>[(2020.0, '2024-21-08'), (2020.0, '2024-22-08'), (2020.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>2020</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4001405711</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Charmante 2.5-Zimmer-Wohnung in Zürich-Wiedikon</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Uetlibergstrasse 244, 8045 Zürich</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8045</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001405711</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K147" t="n">
+        <v>60</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>[(2020.0, '2024-21-08'), (2020.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>2020</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4001281768</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1.5 Zimmerwohnung in Zürich Albisrieden</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wydäckerring 61, 8047 Zürich</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001281768</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K148" t="n">
+        <v>39</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>[(2020.0, '2024-18-08'), (2020.0, '2024-20-08'), (2020.0, '2024-21-08'), (2020.0, '2024-22-08'), (2020.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>2020</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4001410144</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Appartements de 3.5 pièces (2 pers. min)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>avenue de la Gare des Eaux-Vives 33-35, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410144</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K149" t="n">
+        <v>68</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>[(2021.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4001407331</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Grosszügige 2.5 Zimmerwohnung zu einem attraktiven Preis</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Albulastrasse 56, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001407331</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>64</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>[(2026.0, '2024-22-08'), (2026.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>2026</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>4001410743</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Appartement de 4 pièces au 3ème étage</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Avenue de Feuillasse 5, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410743</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>77</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>[(2030.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>2030</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>3001912432</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>City Pop - Deine flexible Lösung für lange und kürzere Aufenthalte um dich wie zu Hause zu fühlen</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Bernerstrasse S 169, 8048 Zürich</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>8064</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3001912432</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K152" t="n">
+        <v>23</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>[(2035.0, '2024-18-08'), (2035.0, '2024-20-08'), (2035.0, '2024-21-08'), (2035.0, '2024-22-08'), (2035.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>2035</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4001366894</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Appartement de 2,5 pièces à Champel.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1206 Genève</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366894</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>35</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>[(2039.0, '2024-18-08'), (2039.0, '2024-20-08'), (2039.0, '2024-21-08'), (2039.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>2039</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4001275630</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2.5 Zimmerwohnung mit wunderschöner Aussicht in Zürich Nord</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Zürich</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001275630</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>51</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>[(2040.0, '2024-18-08'), (2040.0, '2024-20-08'), (2040.0, '2024-21-08'), (2040.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>2040</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4001374444</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Urbanes Wohngefühl sucht neuen Mieter</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Nordstrasse 168, 8037 Zürich</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8037</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001374444</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>2</v>
+      </c>
+      <c r="K155" t="n">
+        <v>34</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>[(2045.0, '2024-18-08'), (2045.0, '2024-20-08'), (2045.0, '2024-21-08'), (2045.0, '2024-22-08'), (2045.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>2045</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4001406846</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Logement idéal pour un jeune couple dans le quartier des Charmilles</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Avenue Henri-Golay 38, 1219 Châtelaine</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001406846</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K156" t="n">
+        <v>47</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>[(2049.0, '2024-22-08'), (2049.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>2049</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4001384369</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sous-location d' appartement 2 pièces à Champel à partir du 1 octobre</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1206 Genève</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001384369</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="n">
+        <v>53</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>[(2050.0, '2024-18-08'), (2050.0, '2024-20-08'), (2050.0, '2024-21-08'), (2050.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4001410284</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TOP-AUSSICHT, ZENTRAL UND RUHIGE LAGE</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rümlangstrasse 111, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410284</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K158" t="n">
+        <v>51</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>[(2050.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>4001386668</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Quartier Hôpital / Plainpalais : attique avec balcon</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rue Jean-Violette 30, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386668</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>50</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>[(2050.0, '2024-18-08'), (2050.0, '2024-20-08'), (2050.0, '2024-21-08'), (2050.0, '2024-22-08'), (2050.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4001141576</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wohnung am Park Artergut</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Zeltweg 83, 8032 Zürich</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001141576</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K160" t="n">
+        <v>35</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>[(2050.0, '2024-18-08'), (2050.0, '2024-20-08'), (2050.0, '2024-21-08'), (2050.0, '2024-22-08'), (2050.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4001391348</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Wohnen im Herzen von Zürich</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Brauerstrasse 29, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001391348</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>2</v>
+      </c>
+      <c r="K161" t="n">
+        <v>40</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>[(2052.0, '2024-18-08'), (2052.0, '2024-20-08'), (2052.0, '2024-21-08'), (2052.0, '2024-22-08'), (2052.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>2052</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>4001308102</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>3,5 pièces avec balcon au coeur des Pâquis disponible au 1er août</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rue des Pâquis 49, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001308102</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K162" t="n">
+        <v>55</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>[(2062.0, '2024-18-08'), (2062.0, '2024-20-08'), (2062.0, '2024-21-08'), (2062.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>2062</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>4001390271</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Hochparterrewohnung unweit vom Waldrand im schönen Zürich-Witikon</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Im Brächli 25/27, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390271</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>3</v>
+      </c>
+      <c r="K163" t="n">
+        <v>64</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>[(2070.0, '2024-18-08'), (2070.0, '2024-20-08'), (2070.0, '2024-21-08'), (2070.0, '2024-22-08'), (2070.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>2070</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>3001034688</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Friesstrasse 33, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034688</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K164" t="n">
+        <v>25</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>[(2080.0, '2024-18-08'), (2080.0, '2024-20-08'), (2080.0, '2024-21-08'), (2080.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>3001034689</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Friesstrasse 33, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034689</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K165" t="n">
+        <v>25</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>[(2080.0, '2024-18-08'), (2080.0, '2024-20-08'), (2080.0, '2024-21-08'), (2080.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4001382534</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Appartement 3 pièces à Plainpalais</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1205 Genève</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001382534</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>67</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>[(2080.0, '2024-18-08'), (2080.0, '2024-20-08'), (2080.0, '2024-21-08'), (2080.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4001410351</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Moderne 2.5-Zimmerwohnung - Zürich Seebach</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Arianestrasse 19, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410351</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K167" t="n">
+        <v>67</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>[(2080.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>2080</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4001403304</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Wohnen in einem Riegelhaus im alten Dorfkern von Zürich-Witikon</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Berghaldenstr. 54, 8053 Zürich</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001403304</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K168" t="n">
+        <v>76</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>[(2082.0, '2024-21-08'), (2082.0, '2024-22-08'), (2082.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>2082</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4001410776</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Bel appartement entièrement neuf</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte de Frontenex 88, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410776</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>56</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>[(2088.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>2088</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4000848882</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Appartement de charme dans le vieux Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rue du Gothard 7, 1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000848882</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K170" t="n">
+        <v>56</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-18-08'), (2090.0, '2024-20-08'), (2090.0, '2024-21-08'), (2090.0, '2024-22-08'), (2090.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4001408627</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Appartement rénové dans le vieux Chêne-bourg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001408627</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>58</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4001372832</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Appartement rénové dans le vieux Chêne-bourg</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1225</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372832</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>3</v>
+      </c>
+      <c r="K172" t="n">
+        <v>58</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-18-08'), (2090.0, '2024-20-08'), (2090.0, '2024-21-08'), (2090.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4001377003</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Quartier des Acacias</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rue Caroline 34, 1227 Les Acacias</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001377003</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>43</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-18-08'), (2090.0, '2024-20-08'), (2090.0, '2024-21-08'), (2090.0, '2024-22-08'), (2090.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4001138025</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2 Zimmer-Wohnung, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001138025</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>54</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-18-08'), (2090.0, '2024-20-08'), (2090.0, '2024-21-08'), (2090.0, '2024-22-08'), (2090.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4001296888</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1.5-Zimmer Wohnung zu vermieten</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Haltestelle Binz, Wiedikon, 8045 Zürich</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001296888</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K175" t="n">
+        <v>29</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>[(2090.0, '2024-18-08'), (2090.0, '2024-20-08'), (2090.0, '2024-21-08'), (2090.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>2090</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4001117336</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>möblierte 2 Zimmer Wohnung, zentral und ruhig gelegen</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Hanfrose 8, 8055 Zürich</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>8055</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001117336</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>60</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4001382035</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Bel appartement de 2 pièces</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rue de la Ferme 9, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001382035</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>60</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4001381180</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Appartement Grand Saconnex</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001381180</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>4</v>
+      </c>
+      <c r="K178" t="n">
+        <v>65</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4001187616</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Tolle Wohnung in einem der attraktivsten Quartiere der Stadt Zürich</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Eidmattstrasse 6, 8032 Zürich</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001187616</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K179" t="n">
+        <v>38</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>[(1900.0, '2024-18-08'), (1900.0, '2024-20-08'), (1900.0, '2024-21-08'), (1900.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4001363108</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Attraktiv, möbliert direkt beim Lochergut</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Badenerstrasse 250, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001363108</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K180" t="n">
+        <v>25</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4001366357</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Proche de la Gare</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rue Schaub 11, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001366357</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K181" t="n">
+        <v>56</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>[(2100.0, '2024-18-08'), (2100.0, '2024-20-08'), (2100.0, '2024-21-08'), (2100.0, '2024-22-08'), (2100.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4001360198</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Appartement 3 pièces situé au Grand-saconnex</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1218 Le Grand-Saconnex</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001360198</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>3</v>
+      </c>
+      <c r="K182" t="n">
+        <v>55</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>[(2102.0, '2024-18-08'), (2102.0, '2024-20-08'), (2102.0, '2024-21-08'), (2102.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>2102</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4001305589</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Gemütliches Wohnen in der Nähe Uni Irchel - - MIETEN OHNE KAUTION</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Winterthurerstr. 85, 8006 Zürich</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8006</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001305589</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>57</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>[(2105.0, '2024-18-08'), (2105.0, '2024-20-08'), (2105.0, '2024-21-08'), (2105.0, '2024-22-08'), (2105.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>2105</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4001322661</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Florastrasse 7, 8008 Zürich</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001322661</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K184" t="n">
+        <v>27</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>[(2110.0, '2024-18-08'), (2110.0, '2024-20-08'), (2110.0, '2024-21-08'), (2110.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>2110</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4001410710</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Erstvermietung - Wohnen an der Zürcher Seepromenade</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Florastrasse 7, 8008 Zürich</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001410710</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K185" t="n">
+        <v>27</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>[(2110.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>2110</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4001398870</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Dachwohnung in Zürich</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Meisenrain 23, 8044 Zürich</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001398870</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K186" t="n">
+        <v>65</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>[(2120.0, '2024-20-08'), (2120.0, '2024-21-08'), (2120.0, '2024-22-08'), (2120.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>2120</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>4001186674</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>City Pop - Your flexible solution for long and short stays!</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Hagenholzstrasse 59, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001186674</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K187" t="n">
+        <v>24</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>[(2122.0, '2024-18-08'), (2122.0, '2024-20-08'), (2122.0, '2024-21-08'), (2122.0, '2024-22-08'), (2122.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>2122</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4001404497</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Appartement de 3 pièces situé la Servette</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001404497</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>3</v>
+      </c>
+      <c r="K188" t="n">
+        <v>59</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>[(2128.0, '2024-21-08'), (2128.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4001217934</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Ansprechende Wohnung an zentraler Lage in Seebach</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Schaffhauserstrasse 457, 8052 Zürich</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>8052</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001217934</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K189" t="n">
+        <v>83</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>[(2145.0, '2024-18-08'), (2145.0, '2024-20-08'), (2145.0, '2024-21-08'), (2145.0, '2024-22-08'), (2145.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>2145</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4001385922</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Schöne möblierte Wohnung in der Nähe des Zürisee,hell&amp; ruhig</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Widmerstrasse, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001385922</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K190" t="n">
+        <v>55</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4001336915</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Gemütliche 3-Zimmer-Wohnung zur Untermiete in Zürich</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Albisstrasse 37, 8038 Zürich</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>8038</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/4001336915</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>3</v>
+      </c>
+      <c r="K191" t="n">
+        <v>63</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4001390967</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Proche des HUG</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Avenue Calas 20, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390967</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K192" t="n">
+        <v>64</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08'), (2150.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4001365159</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Joli appartement à louer à Avully</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Avenue de Gennecy 36, 1237 Avully</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Geneve</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1237</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001365159</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>70</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08'), (2150.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4001386669</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Teilsanierte Wohnung im Herzen der Stadt</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Langstrasse 133, 8004 Zürich</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>8004</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386669</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>57</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3001034692</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1.5 Zimmer Apartment in Oerlikon</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Gubelstrasse 64, 8050 Zürich</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>immoscout24</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://www.immoscout24.ch/rent/3001034692</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K195" t="n">
+        <v>35</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4001335272</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Moderne möblierte 1 .5-Zimmerwohnung an beliebter Lage</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Riedgrabenweg 2, 8051 Zürich</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>8050</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001335272</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K196" t="n">
+        <v>56</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>[(2150.0, '2024-18-08'), (2150.0, '2024-20-08'), (2150.0, '2024-21-08'), (2150.0, '2024-22-08'), (2150.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>2150</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4001397903</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Quiet flat in Enge close to Sihlcity, Rieterpark and public transport</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Engimattstrasse 31, 8002 Zurigo</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>8002</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001397903</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K197" t="n">
+        <v>61</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>[(2154.0, '2024-20-08'), (2154.0, '2024-21-08'), (2154.0, '2024-22-08'), (2154.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>2154</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>4001409818</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Zentral und doch ruhig wohnen</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Gutstrasse 172 174 176, 8055 Zürich</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001409818</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>3</v>
+      </c>
+      <c r="K198" t="n">
+        <v>60</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>[(2160.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>2160</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>4001386444</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>3.5-Zimmer-Wohnung in Albisrieden</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Altstetterstrasse 288, 8047 Zürich</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001386444</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K199" t="n">
+        <v>64</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>[(2160.0, '2024-18-08'), (2160.0, '2024-20-08'), (2160.0, '2024-21-08'), (2160.0, '2024-22-08'), (2160.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>2160</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>2024-23-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>4001390534</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Ruhige Wohnlage Nähe Bucheggplatz</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Grabenwies 15/17/19, 8057 Zürich</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001390534</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>3</v>
+      </c>
+      <c r="K200" t="n">
+        <v>71</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>[(2160.0, '2024-18-08'), (2160.0, '2024-20-08'), (2160.0, '2024-21-08'), (2160.0, '2024-22-08')]</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>2160</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>2024-22-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>4001171499</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Schöne 2-Zimmer-Wohnung an Toplage in Höngg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Michelstrasse 17, 8049 Zürich</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>homegate</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001171499</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>2</v>
+      </c>
+      <c r="K201" t="n">
+        <v>45</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>[(2165.0, '2024-18-08'), (2165.0, '2024-20-08'), (2165.0, '2024-21-08'), (2165.0, '2024-22-08'), (2165.0, '2024-23-08')]</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>2165</v>
+      </c>
+      <c r="N201" t="inlineStr">
         <is>
           <t>2024-23-08</t>
         </is>
